--- a/data/trans_bre/P32A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Edad-trans_bre.xlsx
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.250890522250368</v>
+        <v>-2.358719712549995</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.619420352206313</v>
+        <v>-4.869528474511206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.924775635087193</v>
+        <v>-2.26386990677197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.015137688168406</v>
+        <v>1.900880899862114</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
@@ -691,17 +691,17 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.178387064322228</v>
+        <v>0.2351081233249173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.426392083991908</v>
+        <v>3.00773118288872</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.08530548616766</v>
+        <v>17.21363055639562</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.6955050706900474</v>
+        <v>0.6197307265452955</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.596017840078946</v>
+        <v>-1.58324304827306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.116004214387933</v>
+        <v>-4.207634754673995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.221804491960856</v>
+        <v>-4.190083524727599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.7860503106041755</v>
+        <v>-0.9265917318174086</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
@@ -778,23 +778,23 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.043095451727144</v>
+        <v>1.01394050841149</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.7892332073254991</v>
+        <v>-0.788885957713035</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.25692883374336</v>
+        <v>0.02245617197651752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.504252436305486</v>
+        <v>3.057554166019225</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.2398004945703709</v>
+        <v>-0.0788814652758046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9803515672436557</v>
+        <v>0.5221464081675719</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
@@ -819,7 +819,7 @@
         <v>-1.317655970066984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.126434775783605</v>
+        <v>0.1264347757836043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2721362732564217</v>
@@ -831,7 +831,7 @@
         <v>-0.6309775178514386</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1141452262886882</v>
+        <v>0.1141452262886876</v>
       </c>
     </row>
     <row r="11">
@@ -842,20 +842,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.678408473657734</v>
+        <v>-1.694587374843801</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.814278917689903</v>
+        <v>-4.722822825095483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.081104081125508</v>
+        <v>-3.104361258871276</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.708587746585357</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-1.477805558668766</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
         <v>-1</v>
       </c>
@@ -872,25 +870,23 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.647085114579484</v>
+        <v>1.499270468496337</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.047557381841282</v>
+        <v>-1.025439121322246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.381366022330551</v>
+        <v>0.3375507190887959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.235346278291071</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>7.914634781155191</v>
-      </c>
+        <v>2.424601928106195</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>-0.1576781821025143</v>
+        <v>0.1638283944772033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.114465397400331</v>
+        <v>0.7603936858457363</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -915,7 +911,7 @@
         <v>-1.284377239955852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.3572277950849</v>
+        <v>-1.357227795084901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-1</v>
@@ -927,7 +923,7 @@
         <v>-0.6067845134092009</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5725634137581727</v>
+        <v>-0.5725634137581729</v>
       </c>
     </row>
     <row r="14">
@@ -938,19 +934,21 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.021057193756627</v>
+        <v>-2.285180572818877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.219044000671947</v>
+        <v>-3.936794309728892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.151919463898307</v>
+        <v>-2.996143000658213</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.798481820516027</v>
+        <v>-3.2915579336466</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I14" s="6" t="n">
         <v>-1</v>
       </c>
@@ -969,21 +967,23 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.147330073132293</v>
+        <v>-0.04837443951417369</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.697215368081483</v>
+        <v>0.9753431296279573</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4106038530614067</v>
+        <v>0.5371583564611342</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>1.824383306127921</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>1.412379131005766</v>
+        <v>2.770385380465665</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6600351629340918</v>
+        <v>0.6879763577992214</v>
       </c>
     </row>
     <row r="16">
@@ -1007,7 +1007,7 @@
         <v>1.22825357880412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.36162839483389</v>
+        <v>-1.361628394833889</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-1</v>
@@ -1019,7 +1019,7 @@
         <v>0.628556599530076</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3920366282529006</v>
+        <v>-0.3920366282529004</v>
       </c>
     </row>
     <row r="17">
@@ -1030,22 +1030,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.941231651436278</v>
+        <v>-6.592596243004777</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9462660973957207</v>
+        <v>-0.8758849108424249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.763569818622999</v>
+        <v>-1.619893891004093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.848057069981395</v>
+        <v>-3.970318785241051</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
-      <c r="I17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8103033164456189</v>
+        <v>-0.8223325429934133</v>
       </c>
     </row>
     <row r="18">
@@ -1056,22 +1058,24 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.08648400727163</v>
+        <v>-1.006278728033329</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.716648718908658</v>
+        <v>8.862113863141095</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.241336956301636</v>
+        <v>6.883384479687879</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.33750368600153</v>
+        <v>1.218406682610906</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>9.502408742515438</v>
+      </c>
       <c r="J18" s="6" t="n">
-        <v>0.9453842497106956</v>
+        <v>0.6671404644068861</v>
       </c>
     </row>
     <row r="19">
@@ -1095,7 +1099,7 @@
         <v>-0.03980935397417465</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.8858278526643771</v>
+        <v>-0.8858278526643778</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
@@ -1105,7 +1109,7 @@
         <v>-0.02402564751237031</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3457456342729413</v>
+        <v>-0.3457456342729415</v>
       </c>
     </row>
     <row r="20">
@@ -1117,19 +1121,19 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>-5.156611502016395</v>
+        <v>-5.146967830907038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.757295977903482</v>
+        <v>-2.709434617393957</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.468849281835021</v>
+        <v>-3.196302887435947</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.8829822132846169</v>
+        <v>-0.8688173164950284</v>
       </c>
     </row>
     <row r="21">
@@ -1141,19 +1145,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>-0.6114313178859955</v>
+        <v>-0.6108632607537136</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.743357191094817</v>
+        <v>5.303010206070365</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.828901944514222</v>
+        <v>2.368013631360501</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.819011480775125</v>
+        <v>2.803911534916496</v>
       </c>
     </row>
     <row r="22">
@@ -1177,7 +1181,7 @@
         <v>3.264203479146941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.368146969144606</v>
+        <v>1.368146969144605</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1191,7 +1195,7 @@
         </is>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.6133278496964818</v>
+        <v>0.6133278496964815</v>
       </c>
     </row>
     <row r="23">
@@ -1202,23 +1206,21 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.031760169337973</v>
+        <v>-6.88695071848274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.72528292094735</v>
+        <v>-12.78360838285811</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.558128209453746</v>
+        <v>-2.096469398489975</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
-      <c r="J23" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1234,17 +1236,15 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.50663183201443</v>
+        <v>15.7367931812482</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.94387209588791</v>
+        <v>9.937426644057354</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
-      <c r="J24" s="6" t="n">
-        <v>19.43524644547556</v>
-      </c>
+      <c r="J24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.323496763425835</v>
+        <v>-1.318899267735396</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.582866014374939</v>
+        <v>-2.629339828007854</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.596154713582082</v>
+        <v>-1.5463826644914</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.7058190524722343</v>
+        <v>-0.7660696692833331</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8559274991742313</v>
+        <v>-0.8589658741704892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.666634448822464</v>
+        <v>-0.6598510149449311</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3411772114750899</v>
+        <v>-0.3699262946160345</v>
       </c>
     </row>
     <row r="27">
@@ -1322,28 +1322,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.1129300352295978</v>
+        <v>-0.1442775007574596</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.6089050609537234</v>
+        <v>-0.7478064476939361</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3051019492576221</v>
+        <v>0.247840272896862</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.768912329021334</v>
+        <v>1.7459400786203</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06748838457661596</v>
+        <v>-0.04053880773864792</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2676823961487755</v>
+        <v>-0.2918341619036845</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2084299750039198</v>
+        <v>0.2206383833353281</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.218508748106703</v>
+        <v>1.216915229884839</v>
       </c>
     </row>
     <row r="28">
